--- a/MimicPanel/DriverDesk/DriverDeskTft/doc/DriverDeskTft-bom.xlsx
+++ b/MimicPanel/DriverDesk/DriverDeskTft/doc/DriverDeskTft-bom.xlsx
@@ -218,7 +218,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.3+1</t>
+    <t>8.0.4+1</t>
   </si>
   <si>
     <t>Component Groups:</t>

--- a/MimicPanel/DriverDesk/DriverDeskTft/doc/DriverDeskTft-bom.xlsx
+++ b/MimicPanel/DriverDesk/DriverDeskTft/doc/DriverDeskTft-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="184">
   <si>
     <t>Row</t>
   </si>
@@ -50,22 +50,34 @@
     <t>LCSC</t>
   </si>
   <si>
-    <t>MPN</t>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>mpn</t>
+  </si>
+  <si>
+    <t>Campo6</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x04, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x04</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>PinHeader_1x04_P2.54mm_Vertical</t>
+    <t/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C409 C410</t>
+  </si>
+  <si>
+    <t>10pf</t>
+  </si>
+  <si>
+    <t>C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -74,61 +86,295 @@
     <t>~</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x08, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x08</t>
-  </si>
-  <si>
-    <t>J1</t>
+    <t>C1785</t>
+  </si>
+  <si>
+    <t>Kemet</t>
+  </si>
+  <si>
+    <t>C0805C100J5RACTU</t>
+  </si>
+  <si>
+    <t>C407 C408</t>
+  </si>
+  <si>
+    <t>20pf</t>
+  </si>
+  <si>
+    <t>C1798</t>
+  </si>
+  <si>
+    <t>C0805C200J5HAC7800</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C401 C402 C403 C404 C405</t>
+  </si>
+  <si>
+    <t>100nf</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C49678</t>
+  </si>
+  <si>
+    <t>C0805C104J5RAC7800</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C301 C302</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>CP_EIA-3216-18_Kemet-A</t>
+  </si>
+  <si>
+    <t>C7171</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D101</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>D_Schottky</t>
+  </si>
+  <si>
+    <t>D301</t>
+  </si>
+  <si>
+    <t>ss14</t>
+  </si>
+  <si>
+    <t>D_SMA</t>
+  </si>
+  <si>
+    <t>C2480</t>
+  </si>
+  <si>
+    <t>onsemi</t>
+  </si>
+  <si>
+    <t>SS14</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x06, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
     <t>Conn_01x06</t>
   </si>
   <si>
-    <t>PinHeader_1x08_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x05, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+    <t>J401</t>
+  </si>
+  <si>
+    <t>Conn_01x06_P1.27</t>
+  </si>
+  <si>
+    <t>PinHeader_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>Conn_02x05_Odd_Even</t>
   </si>
   <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>PinHeader_2x05_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>J402</t>
+  </si>
+  <si>
+    <t>Conn_02x05 Odd_Even</t>
+  </si>
+  <si>
+    <t>PinHeader_2x05_P1.27mm_Vertical_SMD</t>
+  </si>
+  <si>
+    <t>C5632705</t>
+  </si>
+  <si>
+    <t>Amphenol ICC (FCI)</t>
+  </si>
+  <si>
+    <t>20021121-00010C4LF</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Generic connectable mounting pin connector, single row, 01x05, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x05_MountingPin</t>
+  </si>
+  <si>
+    <t>J101</t>
+  </si>
+  <si>
+    <t>S5B-PH-SM4-TB</t>
+  </si>
+  <si>
+    <t>JST_PH_S5B-PH-SM4-TB_1x05-1MP_P2.00mm_Horizontal</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>USB Micro Type B connector</t>
+  </si>
+  <si>
+    <t>USB_B_Micro</t>
+  </si>
+  <si>
+    <t>J301</t>
+  </si>
+  <si>
+    <t>USB_Micro-B_Amphenol_10118193-0001LF_Horizontal</t>
+  </si>
+  <si>
+    <t>C132562</t>
+  </si>
+  <si>
+    <t>Würth Elektronik</t>
+  </si>
+  <si>
+    <t>10118193-0001LF</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R303 R304</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>C17544</t>
+  </si>
+  <si>
+    <t>Bourns Inc.</t>
+  </si>
+  <si>
+    <t>CR0805-FX-20R0ELF</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R1 R2 R3 R4 R5 R6 R7 R8 R9 R10 R11 R12 R13 R14</t>
-  </si>
-  <si>
-    <t>R_1206_3216Metric</t>
+    <t>R101</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>R302</t>
+  </si>
+  <si>
+    <t>1K5</t>
+  </si>
+  <si>
+    <t>C4310</t>
+  </si>
+  <si>
+    <t>CR0805-FX-1501ELF</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>5</t>
+    <t>R102 R103 R201 R202 R203 R204 R205 R206 R207 R208 R209 R210 R211 R212 R213 R214 R401 R402 R403</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>C17414</t>
+  </si>
+  <si>
+    <t>CR0805-FX-1002ELF</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>R301</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>C17407</t>
+  </si>
+  <si>
+    <t>CR0805-FX-1003ELF</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>SW_Push</t>
+  </si>
+  <si>
+    <t>SW401</t>
+  </si>
+  <si>
+    <t>PTS526</t>
+  </si>
+  <si>
+    <t>SW_PTS526_SM08_SMTR2_LFS</t>
+  </si>
+  <si>
+    <t>C2689521</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>PTS526 SK15 SMTR2 LFS</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch and MP Pin</t>
@@ -137,7 +383,7 @@
     <t>RotaryEncoder_Switch_MP</t>
   </si>
   <si>
-    <t>SW11</t>
+    <t>SW212</t>
   </si>
   <si>
     <t>RotaryEncoder_Switch</t>
@@ -152,31 +398,61 @@
     <t>PEC11R4015F-S0024</t>
   </si>
   <si>
-    <t>6</t>
+    <t>18</t>
   </si>
   <si>
     <t>Push button switch, generic, two pins</t>
   </si>
   <si>
-    <t>SW_Push</t>
-  </si>
-  <si>
-    <t>SW1 SW2 SW3 SW4 SW5 SW6 SW7 SW8 SW9 SW10 SW12</t>
+    <t>SW201 SW202 SW203 SW204 SW205 SW206 SW207 SW208 SW209 SW210 SW211</t>
   </si>
   <si>
     <t>SW_PUSH_6mm_H5mm</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>C2888764</t>
   </si>
   <si>
     <t>1825910-6</t>
   </si>
   <si>
-    <t>7</t>
+    <t>1A Low Dropout regulator, positive, 3.3V fixed output, SOT-223</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>U301</t>
+  </si>
+  <si>
+    <t>SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>http://www.advanced-monolithic.com/pdf/ds1117.pdf</t>
+  </si>
+  <si>
+    <t>STMicroelectronics Arm Cortex-M3 MCU, 128KB flash, 20KB RAM, 72 MHz, 2.0-3.6V, 37 GPIO, LQFP48</t>
+  </si>
+  <si>
+    <t>STM32F103CBTx</t>
+  </si>
+  <si>
+    <t>U401</t>
+  </si>
+  <si>
+    <t>LQFP-48_7x7mm_P0.5mm</t>
+  </si>
+  <si>
+    <t>https://www.st.com/resource/en/datasheet/stm32f103cb.pdf</t>
+  </si>
+  <si>
+    <t>C8304</t>
+  </si>
+  <si>
+    <t>STM32F103CBT6</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>TFT_1.8 SPI</t>
@@ -188,6 +464,48 @@
     <t>TFT 1.8 SPI</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Y402</t>
+  </si>
+  <si>
+    <t>32.768kHz</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
+  </si>
+  <si>
+    <t>C32346</t>
+  </si>
+  <si>
+    <t>Abracon LLC</t>
+  </si>
+  <si>
+    <t>ABS07AIG-32.768KHZ-D-T</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Y401</t>
+  </si>
+  <si>
+    <t>8MHz</t>
+  </si>
+  <si>
+    <t>Crystal_SMD_5032-2Pin_5.0x3.2mm</t>
+  </si>
+  <si>
+    <t>C115962</t>
+  </si>
+  <si>
+    <t>ABM3-8.000MHZ-B4Y-T</t>
+  </si>
+  <si>
     <t>Bill of Materials</t>
   </si>
   <si>
@@ -218,7 +536,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.4+1</t>
+    <t>8.0.8+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -227,7 +545,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>30 (14 SMD/ 16 THT)</t>
+    <t>59 (45 SMD/ 14 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -311,7 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F9FF"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFE6F9FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFF0FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,10 +739,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2519775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>297815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -451,7 +769,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -748,7 +1066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -760,19 +1078,21 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" customHeight="1">
+    <row r="1" spans="1:13" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -782,78 +1102,80 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="F2" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="C5" s="2" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="F6" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -887,255 +1209,959 @@
       <c r="K8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="J10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="L10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="45" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1156,27 +2182,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>76</v>
+      <c r="A4" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
-        <v>77</v>
+      <c r="A5" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
